--- a/xlsx/人類學_intext.xlsx
+++ b/xlsx/人類學_intext.xlsx
@@ -29,7 +29,7 @@
     <t>體質人類學</t>
   </si>
   <si>
-    <t>政策_政策_政治學_人類學</t>
+    <t>体育运动_体育运动_体育_人類學</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E4%BA%BA%E7%B1%BB%E5%AD%A6</t>
